--- a/atomica/library/hiv_dyn_framework.xlsx
+++ b/atomica/library/hiv_dyn_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57E9B6A-2C11-4B00-AACE-81031C45F785}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6DD244-C40F-D747-BA85-E985867521E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,17 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -844,9 +850,6 @@
     <t>Acquisition rate</t>
   </si>
   <si>
-    <t>probability</t>
-  </si>
-  <si>
     <t>num_acq/max(sus,num_acq)</t>
   </si>
   <si>
@@ -923,6 +926,9 @@
   </si>
   <si>
     <t>Constituents</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -1022,56 +1028,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1118,143 +1075,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -1282,9 +1102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1322,9 +1142,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1357,26 +1177,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1409,26 +1212,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1608,13 +1394,13 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1630,22 +1416,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1685,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1706,13 +1492,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1736,35 +1522,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
@@ -1782,16 +1568,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +1594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1822,7 +1608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1836,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1851,7 +1637,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1652,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1881,7 +1667,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1682,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1911,7 +1697,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +1712,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -1942,7 +1728,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -1959,18 +1745,13 @@
       <c r="F11" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="28" priority="3">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="27" priority="2">
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1992,9 +1773,9 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -2039,7 +1820,7 @@
         <v>dead_other</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>source</v>
@@ -2057,7 +1838,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>sus</v>
@@ -2077,7 +1858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>undx</v>
@@ -2099,7 +1880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>dx</v>
@@ -2121,7 +1902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>linked</v>
@@ -2145,7 +1926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Compartments!$A$7</f>
         <v>tx</v>
@@ -2169,7 +1950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Compartments!$A$8</f>
         <v>lost</v>
@@ -2191,7 +1972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>Compartments!$A$9</f>
         <v>vs</v>
@@ -2215,7 +1996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>Compartments!$A$10</f>
         <v>dead_hiv</v>
@@ -2231,7 +2012,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>Compartments!$A$11</f>
         <v>dead_other</v>
@@ -2248,74 +2029,9 @@
       <c r="K11" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="3">
-      <formula>LEN(TRIM(J5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="notContainsBlanks" dxfId="24" priority="2">
-      <formula>LEN(TRIM(J6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="1">
-      <formula>LEN(TRIM(J9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2 B10:K11 B3:J3 B4:I9">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="14">
+  <conditionalFormatting sqref="B2:K11">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="13">
-      <formula>LEN(TRIM(K3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="12">
-      <formula>LEN(TRIM(K4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="11">
-      <formula>LEN(TRIM(K5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="notContainsBlanks" dxfId="18" priority="10">
-      <formula>LEN(TRIM(K6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="9">
-      <formula>LEN(TRIM(K7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="8">
-      <formula>LEN(TRIM(K8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="7">
-      <formula>LEN(TRIM(K9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="6">
-      <formula>LEN(TRIM(J8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
-      <formula>LEN(TRIM(J7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="4">
-      <formula>LEN(TRIM(J4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,16 +2047,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2357,7 +2073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -2378,7 +2094,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -2395,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>73</v>
       </c>
@@ -2412,7 +2128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -2429,7 +2145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -2446,7 +2162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -2463,7 +2179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -2480,26 +2196,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
     </row>
   </sheetData>
@@ -2517,24 +2233,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2563,7 +2279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>95</v>
       </c>
@@ -2604,7 +2320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -2612,29 +2328,27 @@
         <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>94</v>
@@ -2652,37 +2366,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>94</v>
@@ -2693,47 +2405,45 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -2748,12 +2458,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>94</v>
@@ -2771,48 +2481,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
         <v>32</v>
@@ -2821,15 +2527,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="4">
         <v>0.2</v>
@@ -2846,15 +2552,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>0.16</v>
@@ -2862,9 +2568,7 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
         <v>32</v>
@@ -2873,15 +2577,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D15" s="8">
         <v>5.2999999999999999E-2</v>
@@ -2889,9 +2593,7 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2899,15 +2601,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="8">
         <f>D15*48.78%</f>
@@ -2916,9 +2618,7 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
@@ -2926,15 +2626,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>120</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D17" s="8">
         <f>D15*23%</f>
@@ -2943,9 +2643,7 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="H17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2953,15 +2651,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="4">
         <v>1.4999999999999999E-2</v>
@@ -2969,9 +2667,7 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="H18" s="4" t="s">
         <v>33</v>
       </c>
@@ -2979,7 +2675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2989,7 +2685,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2999,7 +2695,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3009,7 +2705,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -3019,7 +2715,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3029,84 +2725,49 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="10" priority="15">
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B18">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(A15&lt;&gt;"",NOT(B15&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="7" priority="11">
+  <conditionalFormatting sqref="I6:I7">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="5" priority="10">
-      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 B18">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(A15&lt;&gt;"",NOT(B15&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(A16&lt;&gt;"",NOT(B16&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(A17&lt;&gt;"",NOT(B17&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25 C4:C26" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25 C19:C26" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H14 H19:H26" xr:uid="{00000000-0002-0000-0500-000001000000}">
@@ -3114,6 +2775,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H15:H18" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"n,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{8BB35925-45AC-414D-BC0C-6E64EB5F26DF}">
+      <formula1>",number,probability,duration,proportion, rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3126,25 +2790,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -3152,7 +2816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -3160,7 +2824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -3168,7 +2832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3179,7 +2843,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -3190,7 +2854,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -3201,17 +2865,17 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
